--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -4,26 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.11</t>
-  </si>
-  <si>
-    <t>「px2-report」 サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2020-03-30 21:22:23</t>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.2.1</t>
+  </si>
+  <si>
+    <t>「px2-scss」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2023-01-29 12:07:51</t>
   </si>
   <si>
     <t>ページID</t>
@@ -215,10 +215,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -245,84 +242,41 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFdddddd"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFdddddd"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFdddddd"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,7 +573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1351,10 +1305,10 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1417,802 +1371,801 @@
       </c>
     </row>
     <row r="8" spans="1:676">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:676">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9"/>
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="P9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
     </row>
     <row r="12" spans="1:676" customHeight="1" ht="5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
-      <c r="BG12" s="9"/>
-      <c r="BH12" s="9"/>
-      <c r="BI12" s="9"/>
-      <c r="BJ12" s="9"/>
-      <c r="BK12" s="9"/>
-      <c r="BL12" s="9"/>
-      <c r="BM12" s="9"/>
-      <c r="BN12" s="9"/>
-      <c r="BO12" s="9"/>
-      <c r="BP12" s="9"/>
-      <c r="BQ12" s="9"/>
-      <c r="BR12" s="9"/>
-      <c r="BS12" s="9"/>
-      <c r="BT12" s="9"/>
-      <c r="BU12" s="9"/>
-      <c r="BV12" s="9"/>
-      <c r="BW12" s="9"/>
-      <c r="BX12" s="9"/>
-      <c r="BY12" s="9"/>
-      <c r="BZ12" s="9"/>
-      <c r="CA12" s="9"/>
-      <c r="CB12" s="9"/>
-      <c r="CC12" s="9"/>
-      <c r="CD12" s="9"/>
-      <c r="CE12" s="9"/>
-      <c r="CF12" s="9"/>
-      <c r="CG12" s="9"/>
-      <c r="CH12" s="9"/>
-      <c r="CI12" s="9"/>
-      <c r="CJ12" s="9"/>
-      <c r="CK12" s="9"/>
-      <c r="CL12" s="9"/>
-      <c r="CM12" s="9"/>
-      <c r="CN12" s="9"/>
-      <c r="CO12" s="9"/>
-      <c r="CP12" s="9"/>
-      <c r="CQ12" s="9"/>
-      <c r="CR12" s="9"/>
-      <c r="CS12" s="9"/>
-      <c r="CT12" s="9"/>
-      <c r="CU12" s="9"/>
-      <c r="CV12" s="9"/>
-      <c r="CW12" s="9"/>
-      <c r="CX12" s="9"/>
-      <c r="CY12" s="9"/>
-      <c r="CZ12" s="9"/>
-      <c r="DA12" s="9"/>
-      <c r="DB12" s="9"/>
-      <c r="DC12" s="9"/>
-      <c r="DD12" s="9"/>
-      <c r="DE12" s="9"/>
-      <c r="DF12" s="9"/>
-      <c r="DG12" s="9"/>
-      <c r="DH12" s="9"/>
-      <c r="DI12" s="9"/>
-      <c r="DJ12" s="9"/>
-      <c r="DK12" s="9"/>
-      <c r="DL12" s="9"/>
-      <c r="DM12" s="9"/>
-      <c r="DN12" s="9"/>
-      <c r="DO12" s="9"/>
-      <c r="DP12" s="9"/>
-      <c r="DQ12" s="9"/>
-      <c r="DR12" s="9"/>
-      <c r="DS12" s="9"/>
-      <c r="DT12" s="9"/>
-      <c r="DU12" s="9"/>
-      <c r="DV12" s="9"/>
-      <c r="DW12" s="9"/>
-      <c r="DX12" s="9"/>
-      <c r="DY12" s="9"/>
-      <c r="DZ12" s="9"/>
-      <c r="EA12" s="9"/>
-      <c r="EB12" s="9"/>
-      <c r="EC12" s="9"/>
-      <c r="ED12" s="9"/>
-      <c r="EE12" s="9"/>
-      <c r="EF12" s="9"/>
-      <c r="EG12" s="9"/>
-      <c r="EH12" s="9"/>
-      <c r="EI12" s="9"/>
-      <c r="EJ12" s="9"/>
-      <c r="EK12" s="9"/>
-      <c r="EL12" s="9"/>
-      <c r="EM12" s="9"/>
-      <c r="EN12" s="9"/>
-      <c r="EO12" s="9"/>
-      <c r="EP12" s="9"/>
-      <c r="EQ12" s="9"/>
-      <c r="ER12" s="9"/>
-      <c r="ES12" s="9"/>
-      <c r="ET12" s="9"/>
-      <c r="EU12" s="9"/>
-      <c r="EV12" s="9"/>
-      <c r="EW12" s="9"/>
-      <c r="EX12" s="9"/>
-      <c r="EY12" s="9"/>
-      <c r="EZ12" s="9"/>
-      <c r="FA12" s="9"/>
-      <c r="FB12" s="9"/>
-      <c r="FC12" s="9"/>
-      <c r="FD12" s="9"/>
-      <c r="FE12" s="9"/>
-      <c r="FF12" s="9"/>
-      <c r="FG12" s="9"/>
-      <c r="FH12" s="9"/>
-      <c r="FI12" s="9"/>
-      <c r="FJ12" s="9"/>
-      <c r="FK12" s="9"/>
-      <c r="FL12" s="9"/>
-      <c r="FM12" s="9"/>
-      <c r="FN12" s="9"/>
-      <c r="FO12" s="9"/>
-      <c r="FP12" s="9"/>
-      <c r="FQ12" s="9"/>
-      <c r="FR12" s="9"/>
-      <c r="FS12" s="9"/>
-      <c r="FT12" s="9"/>
-      <c r="FU12" s="9"/>
-      <c r="FV12" s="9"/>
-      <c r="FW12" s="9"/>
-      <c r="FX12" s="9"/>
-      <c r="FY12" s="9"/>
-      <c r="FZ12" s="9"/>
-      <c r="GA12" s="9"/>
-      <c r="GB12" s="9"/>
-      <c r="GC12" s="9"/>
-      <c r="GD12" s="9"/>
-      <c r="GE12" s="9"/>
-      <c r="GF12" s="9"/>
-      <c r="GG12" s="9"/>
-      <c r="GH12" s="9"/>
-      <c r="GI12" s="9"/>
-      <c r="GJ12" s="9"/>
-      <c r="GK12" s="9"/>
-      <c r="GL12" s="9"/>
-      <c r="GM12" s="9"/>
-      <c r="GN12" s="9"/>
-      <c r="GO12" s="9"/>
-      <c r="GP12" s="9"/>
-      <c r="GQ12" s="9"/>
-      <c r="GR12" s="9"/>
-      <c r="GS12" s="9"/>
-      <c r="GT12" s="9"/>
-      <c r="GU12" s="9"/>
-      <c r="GV12" s="9"/>
-      <c r="GW12" s="9"/>
-      <c r="GX12" s="9"/>
-      <c r="GY12" s="9"/>
-      <c r="GZ12" s="9"/>
-      <c r="HA12" s="9"/>
-      <c r="HB12" s="9"/>
-      <c r="HC12" s="9"/>
-      <c r="HD12" s="9"/>
-      <c r="HE12" s="9"/>
-      <c r="HF12" s="9"/>
-      <c r="HG12" s="9"/>
-      <c r="HH12" s="9"/>
-      <c r="HI12" s="9"/>
-      <c r="HJ12" s="9"/>
-      <c r="HK12" s="9"/>
-      <c r="HL12" s="9"/>
-      <c r="HM12" s="9"/>
-      <c r="HN12" s="9"/>
-      <c r="HO12" s="9"/>
-      <c r="HP12" s="9"/>
-      <c r="HQ12" s="9"/>
-      <c r="HR12" s="9"/>
-      <c r="HS12" s="9"/>
-      <c r="HT12" s="9"/>
-      <c r="HU12" s="9"/>
-      <c r="HV12" s="9"/>
-      <c r="HW12" s="9"/>
-      <c r="HX12" s="9"/>
-      <c r="HY12" s="9"/>
-      <c r="HZ12" s="9"/>
-      <c r="IA12" s="9"/>
-      <c r="IB12" s="9"/>
-      <c r="IC12" s="9"/>
-      <c r="ID12" s="9"/>
-      <c r="IE12" s="9"/>
-      <c r="IF12" s="9"/>
-      <c r="IG12" s="9"/>
-      <c r="IH12" s="9"/>
-      <c r="II12" s="9"/>
-      <c r="IJ12" s="9"/>
-      <c r="IK12" s="9"/>
-      <c r="IL12" s="9"/>
-      <c r="IM12" s="9"/>
-      <c r="IN12" s="9"/>
-      <c r="IO12" s="9"/>
-      <c r="IP12" s="9"/>
-      <c r="IQ12" s="9"/>
-      <c r="IR12" s="9"/>
-      <c r="IS12" s="9"/>
-      <c r="IT12" s="9"/>
-      <c r="IU12" s="9"/>
-      <c r="IV12" s="9"/>
-      <c r="IW12" s="9"/>
-      <c r="IX12" s="9"/>
-      <c r="IY12" s="9"/>
-      <c r="IZ12" s="9"/>
-      <c r="JA12" s="9"/>
-      <c r="JB12" s="9"/>
-      <c r="JC12" s="9"/>
-      <c r="JD12" s="9"/>
-      <c r="JE12" s="9"/>
-      <c r="JF12" s="9"/>
-      <c r="JG12" s="9"/>
-      <c r="JH12" s="9"/>
-      <c r="JI12" s="9"/>
-      <c r="JJ12" s="9"/>
-      <c r="JK12" s="9"/>
-      <c r="JL12" s="9"/>
-      <c r="JM12" s="9"/>
-      <c r="JN12" s="9"/>
-      <c r="JO12" s="9"/>
-      <c r="JP12" s="9"/>
-      <c r="JQ12" s="9"/>
-      <c r="JR12" s="9"/>
-      <c r="JS12" s="9"/>
-      <c r="JT12" s="9"/>
-      <c r="JU12" s="9"/>
-      <c r="JV12" s="9"/>
-      <c r="JW12" s="9"/>
-      <c r="JX12" s="9"/>
-      <c r="JY12" s="9"/>
-      <c r="JZ12" s="9"/>
-      <c r="KA12" s="9"/>
-      <c r="KB12" s="9"/>
-      <c r="KC12" s="9"/>
-      <c r="KD12" s="9"/>
-      <c r="KE12" s="9"/>
-      <c r="KF12" s="9"/>
-      <c r="KG12" s="9"/>
-      <c r="KH12" s="9"/>
-      <c r="KI12" s="9"/>
-      <c r="KJ12" s="9"/>
-      <c r="KK12" s="9"/>
-      <c r="KL12" s="9"/>
-      <c r="KM12" s="9"/>
-      <c r="KN12" s="9"/>
-      <c r="KO12" s="9"/>
-      <c r="KP12" s="9"/>
-      <c r="KQ12" s="9"/>
-      <c r="KR12" s="9"/>
-      <c r="KS12" s="9"/>
-      <c r="KT12" s="9"/>
-      <c r="KU12" s="9"/>
-      <c r="KV12" s="9"/>
-      <c r="KW12" s="9"/>
-      <c r="KX12" s="9"/>
-      <c r="KY12" s="9"/>
-      <c r="KZ12" s="9"/>
-      <c r="LA12" s="9"/>
-      <c r="LB12" s="9"/>
-      <c r="LC12" s="9"/>
-      <c r="LD12" s="9"/>
-      <c r="LE12" s="9"/>
-      <c r="LF12" s="9"/>
-      <c r="LG12" s="9"/>
-      <c r="LH12" s="9"/>
-      <c r="LI12" s="9"/>
-      <c r="LJ12" s="9"/>
-      <c r="LK12" s="9"/>
-      <c r="LL12" s="9"/>
-      <c r="LM12" s="9"/>
-      <c r="LN12" s="9"/>
-      <c r="LO12" s="9"/>
-      <c r="LP12" s="9"/>
-      <c r="LQ12" s="9"/>
-      <c r="LR12" s="9"/>
-      <c r="LS12" s="9"/>
-      <c r="LT12" s="9"/>
-      <c r="LU12" s="9"/>
-      <c r="LV12" s="9"/>
-      <c r="LW12" s="9"/>
-      <c r="LX12" s="9"/>
-      <c r="LY12" s="9"/>
-      <c r="LZ12" s="9"/>
-      <c r="MA12" s="9"/>
-      <c r="MB12" s="9"/>
-      <c r="MC12" s="9"/>
-      <c r="MD12" s="9"/>
-      <c r="ME12" s="9"/>
-      <c r="MF12" s="9"/>
-      <c r="MG12" s="9"/>
-      <c r="MH12" s="9"/>
-      <c r="MI12" s="9"/>
-      <c r="MJ12" s="9"/>
-      <c r="MK12" s="9"/>
-      <c r="ML12" s="9"/>
-      <c r="MM12" s="9"/>
-      <c r="MN12" s="9"/>
-      <c r="MO12" s="9"/>
-      <c r="MP12" s="9"/>
-      <c r="MQ12" s="9"/>
-      <c r="MR12" s="9"/>
-      <c r="MS12" s="9"/>
-      <c r="MT12" s="9"/>
-      <c r="MU12" s="9"/>
-      <c r="MV12" s="9"/>
-      <c r="MW12" s="9"/>
-      <c r="MX12" s="9"/>
-      <c r="MY12" s="9"/>
-      <c r="MZ12" s="9"/>
-      <c r="NA12" s="9"/>
-      <c r="NB12" s="9"/>
-      <c r="NC12" s="9"/>
-      <c r="ND12" s="9"/>
-      <c r="NE12" s="9"/>
-      <c r="NF12" s="9"/>
-      <c r="NG12" s="9"/>
-      <c r="NH12" s="9"/>
-      <c r="NI12" s="9"/>
-      <c r="NJ12" s="9"/>
-      <c r="NK12" s="9"/>
-      <c r="NL12" s="9"/>
-      <c r="NM12" s="9"/>
-      <c r="NN12" s="9"/>
-      <c r="NO12" s="9"/>
-      <c r="NP12" s="9"/>
-      <c r="NQ12" s="9"/>
-      <c r="NR12" s="9"/>
-      <c r="NS12" s="9"/>
-      <c r="NT12" s="9"/>
-      <c r="NU12" s="9"/>
-      <c r="NV12" s="9"/>
-      <c r="NW12" s="9"/>
-      <c r="NX12" s="9"/>
-      <c r="NY12" s="9"/>
-      <c r="NZ12" s="9"/>
-      <c r="OA12" s="9"/>
-      <c r="OB12" s="9"/>
-      <c r="OC12" s="9"/>
-      <c r="OD12" s="9"/>
-      <c r="OE12" s="9"/>
-      <c r="OF12" s="9"/>
-      <c r="OG12" s="9"/>
-      <c r="OH12" s="9"/>
-      <c r="OI12" s="9"/>
-      <c r="OJ12" s="9"/>
-      <c r="OK12" s="9"/>
-      <c r="OL12" s="9"/>
-      <c r="OM12" s="9"/>
-      <c r="ON12" s="9"/>
-      <c r="OO12" s="9"/>
-      <c r="OP12" s="9"/>
-      <c r="OQ12" s="9"/>
-      <c r="OR12" s="9"/>
-      <c r="OS12" s="9"/>
-      <c r="OT12" s="9"/>
-      <c r="OU12" s="9"/>
-      <c r="OV12" s="9"/>
-      <c r="OW12" s="9"/>
-      <c r="OX12" s="9"/>
-      <c r="OY12" s="9"/>
-      <c r="OZ12" s="9"/>
-      <c r="PA12" s="9"/>
-      <c r="PB12" s="9"/>
-      <c r="PC12" s="9"/>
-      <c r="PD12" s="9"/>
-      <c r="PE12" s="9"/>
-      <c r="PF12" s="9"/>
-      <c r="PG12" s="9"/>
-      <c r="PH12" s="9"/>
-      <c r="PI12" s="9"/>
-      <c r="PJ12" s="9"/>
-      <c r="PK12" s="9"/>
-      <c r="PL12" s="9"/>
-      <c r="PM12" s="9"/>
-      <c r="PN12" s="9"/>
-      <c r="PO12" s="9"/>
-      <c r="PP12" s="9"/>
-      <c r="PQ12" s="9"/>
-      <c r="PR12" s="9"/>
-      <c r="PS12" s="9"/>
-      <c r="PT12" s="9"/>
-      <c r="PU12" s="9"/>
-      <c r="PV12" s="9"/>
-      <c r="PW12" s="9"/>
-      <c r="PX12" s="9"/>
-      <c r="PY12" s="9"/>
-      <c r="PZ12" s="9"/>
-      <c r="QA12" s="9"/>
-      <c r="QB12" s="9"/>
-      <c r="QC12" s="9"/>
-      <c r="QD12" s="9"/>
-      <c r="QE12" s="9"/>
-      <c r="QF12" s="9"/>
-      <c r="QG12" s="9"/>
-      <c r="QH12" s="9"/>
-      <c r="QI12" s="9"/>
-      <c r="QJ12" s="9"/>
-      <c r="QK12" s="9"/>
-      <c r="QL12" s="9"/>
-      <c r="QM12" s="9"/>
-      <c r="QN12" s="9"/>
-      <c r="QO12" s="9"/>
-      <c r="QP12" s="9"/>
-      <c r="QQ12" s="9"/>
-      <c r="QR12" s="9"/>
-      <c r="QS12" s="9"/>
-      <c r="QT12" s="9"/>
-      <c r="QU12" s="9"/>
-      <c r="QV12" s="9"/>
-      <c r="QW12" s="9"/>
-      <c r="QX12" s="9"/>
-      <c r="QY12" s="9"/>
-      <c r="QZ12" s="9"/>
-      <c r="RA12" s="9"/>
-      <c r="RB12" s="9"/>
-      <c r="RC12" s="9"/>
-      <c r="RD12" s="9"/>
-      <c r="RE12" s="9"/>
-      <c r="RF12" s="9"/>
-      <c r="RG12" s="9"/>
-      <c r="RH12" s="9"/>
-      <c r="RI12" s="9"/>
-      <c r="RJ12" s="9"/>
-      <c r="RK12" s="9"/>
-      <c r="RL12" s="9"/>
-      <c r="RM12" s="9"/>
-      <c r="RN12" s="9"/>
-      <c r="RO12" s="9"/>
-      <c r="RP12" s="9"/>
-      <c r="RQ12" s="9"/>
-      <c r="RR12" s="9"/>
-      <c r="RS12" s="9"/>
-      <c r="RT12" s="9"/>
-      <c r="RU12" s="9"/>
-      <c r="RV12" s="9"/>
-      <c r="RW12" s="9"/>
-      <c r="RX12" s="9"/>
-      <c r="RY12" s="9"/>
-      <c r="RZ12" s="9"/>
-      <c r="SA12" s="9"/>
-      <c r="SB12" s="9"/>
-      <c r="SC12" s="9"/>
-      <c r="SD12" s="9"/>
-      <c r="SE12" s="9"/>
-      <c r="SF12" s="9"/>
-      <c r="SG12" s="9"/>
-      <c r="SH12" s="9"/>
-      <c r="SI12" s="9"/>
-      <c r="SJ12" s="9"/>
-      <c r="SK12" s="9"/>
-      <c r="SL12" s="9"/>
-      <c r="SM12" s="9"/>
-      <c r="SN12" s="9"/>
-      <c r="SO12" s="9"/>
-      <c r="SP12" s="9"/>
-      <c r="SQ12" s="9"/>
-      <c r="SR12" s="9"/>
-      <c r="SS12" s="9"/>
-      <c r="ST12" s="9"/>
-      <c r="SU12" s="9"/>
-      <c r="SV12" s="9"/>
-      <c r="SW12" s="9"/>
-      <c r="SX12" s="9"/>
-      <c r="SY12" s="9"/>
-      <c r="SZ12" s="9"/>
-      <c r="TA12" s="9"/>
-      <c r="TB12" s="9"/>
-      <c r="TC12" s="9"/>
-      <c r="TD12" s="9"/>
-      <c r="TE12" s="9"/>
-      <c r="TF12" s="9"/>
-      <c r="TG12" s="9"/>
-      <c r="TH12" s="9"/>
-      <c r="TI12" s="9"/>
-      <c r="TJ12" s="9"/>
-      <c r="TK12" s="9"/>
-      <c r="TL12" s="9"/>
-      <c r="TM12" s="9"/>
-      <c r="TN12" s="9"/>
-      <c r="TO12" s="9"/>
-      <c r="TP12" s="9"/>
-      <c r="TQ12" s="9"/>
-      <c r="TR12" s="9"/>
-      <c r="TS12" s="9"/>
-      <c r="TT12" s="9"/>
-      <c r="TU12" s="9"/>
-      <c r="TV12" s="9"/>
-      <c r="TW12" s="9"/>
-      <c r="TX12" s="9"/>
-      <c r="TY12" s="9"/>
-      <c r="TZ12" s="9"/>
-      <c r="UA12" s="9"/>
-      <c r="UB12" s="9"/>
-      <c r="UC12" s="9"/>
-      <c r="UD12" s="9"/>
-      <c r="UE12" s="9"/>
-      <c r="UF12" s="9"/>
-      <c r="UG12" s="9"/>
-      <c r="UH12" s="9"/>
-      <c r="UI12" s="9"/>
-      <c r="UJ12" s="9"/>
-      <c r="UK12" s="9"/>
-      <c r="UL12" s="9"/>
-      <c r="UM12" s="9"/>
-      <c r="UN12" s="9"/>
-      <c r="UO12" s="9"/>
-      <c r="UP12" s="9"/>
-      <c r="UQ12" s="9"/>
-      <c r="UR12" s="9"/>
-      <c r="US12" s="9"/>
-      <c r="UT12" s="9"/>
-      <c r="UU12" s="9"/>
-      <c r="UV12" s="9"/>
-      <c r="UW12" s="9"/>
-      <c r="UX12" s="9"/>
-      <c r="UY12" s="9"/>
-      <c r="UZ12" s="9"/>
-      <c r="VA12" s="9"/>
-      <c r="VB12" s="9"/>
-      <c r="VC12" s="9"/>
-      <c r="VD12" s="9"/>
-      <c r="VE12" s="9"/>
-      <c r="VF12" s="9"/>
-      <c r="VG12" s="9"/>
-      <c r="VH12" s="9"/>
-      <c r="VI12" s="9"/>
-      <c r="VJ12" s="9"/>
-      <c r="VK12" s="9"/>
-      <c r="VL12" s="9"/>
-      <c r="VM12" s="9"/>
-      <c r="VN12" s="9"/>
-      <c r="VO12" s="9"/>
-      <c r="VP12" s="9"/>
-      <c r="VQ12" s="9"/>
-      <c r="VR12" s="9"/>
-      <c r="VS12" s="9"/>
-      <c r="VT12" s="9"/>
-      <c r="VU12" s="9"/>
-      <c r="VV12" s="9"/>
-      <c r="VW12" s="9"/>
-      <c r="VX12" s="9"/>
-      <c r="VY12" s="9"/>
-      <c r="VZ12" s="9"/>
-      <c r="WA12" s="9"/>
-      <c r="WB12" s="9"/>
-      <c r="WC12" s="9"/>
-      <c r="WD12" s="9"/>
-      <c r="WE12" s="9"/>
-      <c r="WF12" s="9"/>
-      <c r="WG12" s="9"/>
-      <c r="WH12" s="9"/>
-      <c r="WI12" s="9"/>
-      <c r="WJ12" s="9"/>
-      <c r="WK12" s="9"/>
-      <c r="WL12" s="9"/>
-      <c r="WM12" s="9"/>
-      <c r="WN12" s="9"/>
-      <c r="WO12" s="9"/>
-      <c r="WP12" s="9"/>
-      <c r="WQ12" s="9"/>
-      <c r="WR12" s="9"/>
-      <c r="WS12" s="9"/>
-      <c r="WT12" s="9"/>
-      <c r="WU12" s="9"/>
-      <c r="WV12" s="9"/>
-      <c r="WW12" s="9"/>
-      <c r="WX12" s="9"/>
-      <c r="WY12" s="9"/>
-      <c r="WZ12" s="9"/>
-      <c r="XA12" s="9"/>
-      <c r="XB12" s="9"/>
-      <c r="XC12" s="9"/>
-      <c r="XD12" s="9"/>
-      <c r="XE12" s="9"/>
-      <c r="XF12" s="9"/>
-      <c r="XG12" s="9"/>
-      <c r="XH12" s="9"/>
-      <c r="XI12" s="9"/>
-      <c r="XJ12" s="9"/>
-      <c r="XK12" s="9"/>
-      <c r="XL12" s="9"/>
-      <c r="XM12" s="9"/>
-      <c r="XN12" s="9"/>
-      <c r="XO12" s="9"/>
-      <c r="XP12" s="9"/>
-      <c r="XQ12" s="9"/>
-      <c r="XR12" s="9"/>
-      <c r="XS12" s="9"/>
-      <c r="XT12" s="9"/>
-      <c r="XU12" s="9"/>
-      <c r="XV12" s="9"/>
-      <c r="XW12" s="9"/>
-      <c r="XX12" s="9"/>
-      <c r="XY12" s="9"/>
-      <c r="XZ12" s="9"/>
-      <c r="YA12" s="9"/>
-      <c r="YB12" s="9"/>
-      <c r="YC12" s="9"/>
-      <c r="YD12" s="9"/>
-      <c r="YE12" s="9"/>
-      <c r="YF12" s="9"/>
-      <c r="YG12" s="9"/>
-      <c r="YH12" s="9"/>
-      <c r="YI12" s="9"/>
-      <c r="YJ12" s="9"/>
-      <c r="YK12" s="9"/>
-      <c r="YL12" s="9"/>
-      <c r="YM12" s="9"/>
-      <c r="YN12" s="9"/>
-      <c r="YO12" s="9"/>
-      <c r="YP12" s="9"/>
-      <c r="YQ12" s="9"/>
-      <c r="YR12" s="9"/>
-      <c r="YS12" s="9"/>
-      <c r="YT12" s="9"/>
-      <c r="YU12" s="9"/>
-      <c r="YV12" s="9"/>
-      <c r="YW12" s="9"/>
-      <c r="YX12" s="9"/>
-      <c r="YY12" s="9"/>
-      <c r="YZ12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+      <c r="BQ12" s="8"/>
+      <c r="BR12" s="8"/>
+      <c r="BS12" s="8"/>
+      <c r="BT12" s="8"/>
+      <c r="BU12" s="8"/>
+      <c r="BV12" s="8"/>
+      <c r="BW12" s="8"/>
+      <c r="BX12" s="8"/>
+      <c r="BY12" s="8"/>
+      <c r="BZ12" s="8"/>
+      <c r="CA12" s="8"/>
+      <c r="CB12" s="8"/>
+      <c r="CC12" s="8"/>
+      <c r="CD12" s="8"/>
+      <c r="CE12" s="8"/>
+      <c r="CF12" s="8"/>
+      <c r="CG12" s="8"/>
+      <c r="CH12" s="8"/>
+      <c r="CI12" s="8"/>
+      <c r="CJ12" s="8"/>
+      <c r="CK12" s="8"/>
+      <c r="CL12" s="8"/>
+      <c r="CM12" s="8"/>
+      <c r="CN12" s="8"/>
+      <c r="CO12" s="8"/>
+      <c r="CP12" s="8"/>
+      <c r="CQ12" s="8"/>
+      <c r="CR12" s="8"/>
+      <c r="CS12" s="8"/>
+      <c r="CT12" s="8"/>
+      <c r="CU12" s="8"/>
+      <c r="CV12" s="8"/>
+      <c r="CW12" s="8"/>
+      <c r="CX12" s="8"/>
+      <c r="CY12" s="8"/>
+      <c r="CZ12" s="8"/>
+      <c r="DA12" s="8"/>
+      <c r="DB12" s="8"/>
+      <c r="DC12" s="8"/>
+      <c r="DD12" s="8"/>
+      <c r="DE12" s="8"/>
+      <c r="DF12" s="8"/>
+      <c r="DG12" s="8"/>
+      <c r="DH12" s="8"/>
+      <c r="DI12" s="8"/>
+      <c r="DJ12" s="8"/>
+      <c r="DK12" s="8"/>
+      <c r="DL12" s="8"/>
+      <c r="DM12" s="8"/>
+      <c r="DN12" s="8"/>
+      <c r="DO12" s="8"/>
+      <c r="DP12" s="8"/>
+      <c r="DQ12" s="8"/>
+      <c r="DR12" s="8"/>
+      <c r="DS12" s="8"/>
+      <c r="DT12" s="8"/>
+      <c r="DU12" s="8"/>
+      <c r="DV12" s="8"/>
+      <c r="DW12" s="8"/>
+      <c r="DX12" s="8"/>
+      <c r="DY12" s="8"/>
+      <c r="DZ12" s="8"/>
+      <c r="EA12" s="8"/>
+      <c r="EB12" s="8"/>
+      <c r="EC12" s="8"/>
+      <c r="ED12" s="8"/>
+      <c r="EE12" s="8"/>
+      <c r="EF12" s="8"/>
+      <c r="EG12" s="8"/>
+      <c r="EH12" s="8"/>
+      <c r="EI12" s="8"/>
+      <c r="EJ12" s="8"/>
+      <c r="EK12" s="8"/>
+      <c r="EL12" s="8"/>
+      <c r="EM12" s="8"/>
+      <c r="EN12" s="8"/>
+      <c r="EO12" s="8"/>
+      <c r="EP12" s="8"/>
+      <c r="EQ12" s="8"/>
+      <c r="ER12" s="8"/>
+      <c r="ES12" s="8"/>
+      <c r="ET12" s="8"/>
+      <c r="EU12" s="8"/>
+      <c r="EV12" s="8"/>
+      <c r="EW12" s="8"/>
+      <c r="EX12" s="8"/>
+      <c r="EY12" s="8"/>
+      <c r="EZ12" s="8"/>
+      <c r="FA12" s="8"/>
+      <c r="FB12" s="8"/>
+      <c r="FC12" s="8"/>
+      <c r="FD12" s="8"/>
+      <c r="FE12" s="8"/>
+      <c r="FF12" s="8"/>
+      <c r="FG12" s="8"/>
+      <c r="FH12" s="8"/>
+      <c r="FI12" s="8"/>
+      <c r="FJ12" s="8"/>
+      <c r="FK12" s="8"/>
+      <c r="FL12" s="8"/>
+      <c r="FM12" s="8"/>
+      <c r="FN12" s="8"/>
+      <c r="FO12" s="8"/>
+      <c r="FP12" s="8"/>
+      <c r="FQ12" s="8"/>
+      <c r="FR12" s="8"/>
+      <c r="FS12" s="8"/>
+      <c r="FT12" s="8"/>
+      <c r="FU12" s="8"/>
+      <c r="FV12" s="8"/>
+      <c r="FW12" s="8"/>
+      <c r="FX12" s="8"/>
+      <c r="FY12" s="8"/>
+      <c r="FZ12" s="8"/>
+      <c r="GA12" s="8"/>
+      <c r="GB12" s="8"/>
+      <c r="GC12" s="8"/>
+      <c r="GD12" s="8"/>
+      <c r="GE12" s="8"/>
+      <c r="GF12" s="8"/>
+      <c r="GG12" s="8"/>
+      <c r="GH12" s="8"/>
+      <c r="GI12" s="8"/>
+      <c r="GJ12" s="8"/>
+      <c r="GK12" s="8"/>
+      <c r="GL12" s="8"/>
+      <c r="GM12" s="8"/>
+      <c r="GN12" s="8"/>
+      <c r="GO12" s="8"/>
+      <c r="GP12" s="8"/>
+      <c r="GQ12" s="8"/>
+      <c r="GR12" s="8"/>
+      <c r="GS12" s="8"/>
+      <c r="GT12" s="8"/>
+      <c r="GU12" s="8"/>
+      <c r="GV12" s="8"/>
+      <c r="GW12" s="8"/>
+      <c r="GX12" s="8"/>
+      <c r="GY12" s="8"/>
+      <c r="GZ12" s="8"/>
+      <c r="HA12" s="8"/>
+      <c r="HB12" s="8"/>
+      <c r="HC12" s="8"/>
+      <c r="HD12" s="8"/>
+      <c r="HE12" s="8"/>
+      <c r="HF12" s="8"/>
+      <c r="HG12" s="8"/>
+      <c r="HH12" s="8"/>
+      <c r="HI12" s="8"/>
+      <c r="HJ12" s="8"/>
+      <c r="HK12" s="8"/>
+      <c r="HL12" s="8"/>
+      <c r="HM12" s="8"/>
+      <c r="HN12" s="8"/>
+      <c r="HO12" s="8"/>
+      <c r="HP12" s="8"/>
+      <c r="HQ12" s="8"/>
+      <c r="HR12" s="8"/>
+      <c r="HS12" s="8"/>
+      <c r="HT12" s="8"/>
+      <c r="HU12" s="8"/>
+      <c r="HV12" s="8"/>
+      <c r="HW12" s="8"/>
+      <c r="HX12" s="8"/>
+      <c r="HY12" s="8"/>
+      <c r="HZ12" s="8"/>
+      <c r="IA12" s="8"/>
+      <c r="IB12" s="8"/>
+      <c r="IC12" s="8"/>
+      <c r="ID12" s="8"/>
+      <c r="IE12" s="8"/>
+      <c r="IF12" s="8"/>
+      <c r="IG12" s="8"/>
+      <c r="IH12" s="8"/>
+      <c r="II12" s="8"/>
+      <c r="IJ12" s="8"/>
+      <c r="IK12" s="8"/>
+      <c r="IL12" s="8"/>
+      <c r="IM12" s="8"/>
+      <c r="IN12" s="8"/>
+      <c r="IO12" s="8"/>
+      <c r="IP12" s="8"/>
+      <c r="IQ12" s="8"/>
+      <c r="IR12" s="8"/>
+      <c r="IS12" s="8"/>
+      <c r="IT12" s="8"/>
+      <c r="IU12" s="8"/>
+      <c r="IV12" s="8"/>
+      <c r="IW12" s="8"/>
+      <c r="IX12" s="8"/>
+      <c r="IY12" s="8"/>
+      <c r="IZ12" s="8"/>
+      <c r="JA12" s="8"/>
+      <c r="JB12" s="8"/>
+      <c r="JC12" s="8"/>
+      <c r="JD12" s="8"/>
+      <c r="JE12" s="8"/>
+      <c r="JF12" s="8"/>
+      <c r="JG12" s="8"/>
+      <c r="JH12" s="8"/>
+      <c r="JI12" s="8"/>
+      <c r="JJ12" s="8"/>
+      <c r="JK12" s="8"/>
+      <c r="JL12" s="8"/>
+      <c r="JM12" s="8"/>
+      <c r="JN12" s="8"/>
+      <c r="JO12" s="8"/>
+      <c r="JP12" s="8"/>
+      <c r="JQ12" s="8"/>
+      <c r="JR12" s="8"/>
+      <c r="JS12" s="8"/>
+      <c r="JT12" s="8"/>
+      <c r="JU12" s="8"/>
+      <c r="JV12" s="8"/>
+      <c r="JW12" s="8"/>
+      <c r="JX12" s="8"/>
+      <c r="JY12" s="8"/>
+      <c r="JZ12" s="8"/>
+      <c r="KA12" s="8"/>
+      <c r="KB12" s="8"/>
+      <c r="KC12" s="8"/>
+      <c r="KD12" s="8"/>
+      <c r="KE12" s="8"/>
+      <c r="KF12" s="8"/>
+      <c r="KG12" s="8"/>
+      <c r="KH12" s="8"/>
+      <c r="KI12" s="8"/>
+      <c r="KJ12" s="8"/>
+      <c r="KK12" s="8"/>
+      <c r="KL12" s="8"/>
+      <c r="KM12" s="8"/>
+      <c r="KN12" s="8"/>
+      <c r="KO12" s="8"/>
+      <c r="KP12" s="8"/>
+      <c r="KQ12" s="8"/>
+      <c r="KR12" s="8"/>
+      <c r="KS12" s="8"/>
+      <c r="KT12" s="8"/>
+      <c r="KU12" s="8"/>
+      <c r="KV12" s="8"/>
+      <c r="KW12" s="8"/>
+      <c r="KX12" s="8"/>
+      <c r="KY12" s="8"/>
+      <c r="KZ12" s="8"/>
+      <c r="LA12" s="8"/>
+      <c r="LB12" s="8"/>
+      <c r="LC12" s="8"/>
+      <c r="LD12" s="8"/>
+      <c r="LE12" s="8"/>
+      <c r="LF12" s="8"/>
+      <c r="LG12" s="8"/>
+      <c r="LH12" s="8"/>
+      <c r="LI12" s="8"/>
+      <c r="LJ12" s="8"/>
+      <c r="LK12" s="8"/>
+      <c r="LL12" s="8"/>
+      <c r="LM12" s="8"/>
+      <c r="LN12" s="8"/>
+      <c r="LO12" s="8"/>
+      <c r="LP12" s="8"/>
+      <c r="LQ12" s="8"/>
+      <c r="LR12" s="8"/>
+      <c r="LS12" s="8"/>
+      <c r="LT12" s="8"/>
+      <c r="LU12" s="8"/>
+      <c r="LV12" s="8"/>
+      <c r="LW12" s="8"/>
+      <c r="LX12" s="8"/>
+      <c r="LY12" s="8"/>
+      <c r="LZ12" s="8"/>
+      <c r="MA12" s="8"/>
+      <c r="MB12" s="8"/>
+      <c r="MC12" s="8"/>
+      <c r="MD12" s="8"/>
+      <c r="ME12" s="8"/>
+      <c r="MF12" s="8"/>
+      <c r="MG12" s="8"/>
+      <c r="MH12" s="8"/>
+      <c r="MI12" s="8"/>
+      <c r="MJ12" s="8"/>
+      <c r="MK12" s="8"/>
+      <c r="ML12" s="8"/>
+      <c r="MM12" s="8"/>
+      <c r="MN12" s="8"/>
+      <c r="MO12" s="8"/>
+      <c r="MP12" s="8"/>
+      <c r="MQ12" s="8"/>
+      <c r="MR12" s="8"/>
+      <c r="MS12" s="8"/>
+      <c r="MT12" s="8"/>
+      <c r="MU12" s="8"/>
+      <c r="MV12" s="8"/>
+      <c r="MW12" s="8"/>
+      <c r="MX12" s="8"/>
+      <c r="MY12" s="8"/>
+      <c r="MZ12" s="8"/>
+      <c r="NA12" s="8"/>
+      <c r="NB12" s="8"/>
+      <c r="NC12" s="8"/>
+      <c r="ND12" s="8"/>
+      <c r="NE12" s="8"/>
+      <c r="NF12" s="8"/>
+      <c r="NG12" s="8"/>
+      <c r="NH12" s="8"/>
+      <c r="NI12" s="8"/>
+      <c r="NJ12" s="8"/>
+      <c r="NK12" s="8"/>
+      <c r="NL12" s="8"/>
+      <c r="NM12" s="8"/>
+      <c r="NN12" s="8"/>
+      <c r="NO12" s="8"/>
+      <c r="NP12" s="8"/>
+      <c r="NQ12" s="8"/>
+      <c r="NR12" s="8"/>
+      <c r="NS12" s="8"/>
+      <c r="NT12" s="8"/>
+      <c r="NU12" s="8"/>
+      <c r="NV12" s="8"/>
+      <c r="NW12" s="8"/>
+      <c r="NX12" s="8"/>
+      <c r="NY12" s="8"/>
+      <c r="NZ12" s="8"/>
+      <c r="OA12" s="8"/>
+      <c r="OB12" s="8"/>
+      <c r="OC12" s="8"/>
+      <c r="OD12" s="8"/>
+      <c r="OE12" s="8"/>
+      <c r="OF12" s="8"/>
+      <c r="OG12" s="8"/>
+      <c r="OH12" s="8"/>
+      <c r="OI12" s="8"/>
+      <c r="OJ12" s="8"/>
+      <c r="OK12" s="8"/>
+      <c r="OL12" s="8"/>
+      <c r="OM12" s="8"/>
+      <c r="ON12" s="8"/>
+      <c r="OO12" s="8"/>
+      <c r="OP12" s="8"/>
+      <c r="OQ12" s="8"/>
+      <c r="OR12" s="8"/>
+      <c r="OS12" s="8"/>
+      <c r="OT12" s="8"/>
+      <c r="OU12" s="8"/>
+      <c r="OV12" s="8"/>
+      <c r="OW12" s="8"/>
+      <c r="OX12" s="8"/>
+      <c r="OY12" s="8"/>
+      <c r="OZ12" s="8"/>
+      <c r="PA12" s="8"/>
+      <c r="PB12" s="8"/>
+      <c r="PC12" s="8"/>
+      <c r="PD12" s="8"/>
+      <c r="PE12" s="8"/>
+      <c r="PF12" s="8"/>
+      <c r="PG12" s="8"/>
+      <c r="PH12" s="8"/>
+      <c r="PI12" s="8"/>
+      <c r="PJ12" s="8"/>
+      <c r="PK12" s="8"/>
+      <c r="PL12" s="8"/>
+      <c r="PM12" s="8"/>
+      <c r="PN12" s="8"/>
+      <c r="PO12" s="8"/>
+      <c r="PP12" s="8"/>
+      <c r="PQ12" s="8"/>
+      <c r="PR12" s="8"/>
+      <c r="PS12" s="8"/>
+      <c r="PT12" s="8"/>
+      <c r="PU12" s="8"/>
+      <c r="PV12" s="8"/>
+      <c r="PW12" s="8"/>
+      <c r="PX12" s="8"/>
+      <c r="PY12" s="8"/>
+      <c r="PZ12" s="8"/>
+      <c r="QA12" s="8"/>
+      <c r="QB12" s="8"/>
+      <c r="QC12" s="8"/>
+      <c r="QD12" s="8"/>
+      <c r="QE12" s="8"/>
+      <c r="QF12" s="8"/>
+      <c r="QG12" s="8"/>
+      <c r="QH12" s="8"/>
+      <c r="QI12" s="8"/>
+      <c r="QJ12" s="8"/>
+      <c r="QK12" s="8"/>
+      <c r="QL12" s="8"/>
+      <c r="QM12" s="8"/>
+      <c r="QN12" s="8"/>
+      <c r="QO12" s="8"/>
+      <c r="QP12" s="8"/>
+      <c r="QQ12" s="8"/>
+      <c r="QR12" s="8"/>
+      <c r="QS12" s="8"/>
+      <c r="QT12" s="8"/>
+      <c r="QU12" s="8"/>
+      <c r="QV12" s="8"/>
+      <c r="QW12" s="8"/>
+      <c r="QX12" s="8"/>
+      <c r="QY12" s="8"/>
+      <c r="QZ12" s="8"/>
+      <c r="RA12" s="8"/>
+      <c r="RB12" s="8"/>
+      <c r="RC12" s="8"/>
+      <c r="RD12" s="8"/>
+      <c r="RE12" s="8"/>
+      <c r="RF12" s="8"/>
+      <c r="RG12" s="8"/>
+      <c r="RH12" s="8"/>
+      <c r="RI12" s="8"/>
+      <c r="RJ12" s="8"/>
+      <c r="RK12" s="8"/>
+      <c r="RL12" s="8"/>
+      <c r="RM12" s="8"/>
+      <c r="RN12" s="8"/>
+      <c r="RO12" s="8"/>
+      <c r="RP12" s="8"/>
+      <c r="RQ12" s="8"/>
+      <c r="RR12" s="8"/>
+      <c r="RS12" s="8"/>
+      <c r="RT12" s="8"/>
+      <c r="RU12" s="8"/>
+      <c r="RV12" s="8"/>
+      <c r="RW12" s="8"/>
+      <c r="RX12" s="8"/>
+      <c r="RY12" s="8"/>
+      <c r="RZ12" s="8"/>
+      <c r="SA12" s="8"/>
+      <c r="SB12" s="8"/>
+      <c r="SC12" s="8"/>
+      <c r="SD12" s="8"/>
+      <c r="SE12" s="8"/>
+      <c r="SF12" s="8"/>
+      <c r="SG12" s="8"/>
+      <c r="SH12" s="8"/>
+      <c r="SI12" s="8"/>
+      <c r="SJ12" s="8"/>
+      <c r="SK12" s="8"/>
+      <c r="SL12" s="8"/>
+      <c r="SM12" s="8"/>
+      <c r="SN12" s="8"/>
+      <c r="SO12" s="8"/>
+      <c r="SP12" s="8"/>
+      <c r="SQ12" s="8"/>
+      <c r="SR12" s="8"/>
+      <c r="SS12" s="8"/>
+      <c r="ST12" s="8"/>
+      <c r="SU12" s="8"/>
+      <c r="SV12" s="8"/>
+      <c r="SW12" s="8"/>
+      <c r="SX12" s="8"/>
+      <c r="SY12" s="8"/>
+      <c r="SZ12" s="8"/>
+      <c r="TA12" s="8"/>
+      <c r="TB12" s="8"/>
+      <c r="TC12" s="8"/>
+      <c r="TD12" s="8"/>
+      <c r="TE12" s="8"/>
+      <c r="TF12" s="8"/>
+      <c r="TG12" s="8"/>
+      <c r="TH12" s="8"/>
+      <c r="TI12" s="8"/>
+      <c r="TJ12" s="8"/>
+      <c r="TK12" s="8"/>
+      <c r="TL12" s="8"/>
+      <c r="TM12" s="8"/>
+      <c r="TN12" s="8"/>
+      <c r="TO12" s="8"/>
+      <c r="TP12" s="8"/>
+      <c r="TQ12" s="8"/>
+      <c r="TR12" s="8"/>
+      <c r="TS12" s="8"/>
+      <c r="TT12" s="8"/>
+      <c r="TU12" s="8"/>
+      <c r="TV12" s="8"/>
+      <c r="TW12" s="8"/>
+      <c r="TX12" s="8"/>
+      <c r="TY12" s="8"/>
+      <c r="TZ12" s="8"/>
+      <c r="UA12" s="8"/>
+      <c r="UB12" s="8"/>
+      <c r="UC12" s="8"/>
+      <c r="UD12" s="8"/>
+      <c r="UE12" s="8"/>
+      <c r="UF12" s="8"/>
+      <c r="UG12" s="8"/>
+      <c r="UH12" s="8"/>
+      <c r="UI12" s="8"/>
+      <c r="UJ12" s="8"/>
+      <c r="UK12" s="8"/>
+      <c r="UL12" s="8"/>
+      <c r="UM12" s="8"/>
+      <c r="UN12" s="8"/>
+      <c r="UO12" s="8"/>
+      <c r="UP12" s="8"/>
+      <c r="UQ12" s="8"/>
+      <c r="UR12" s="8"/>
+      <c r="US12" s="8"/>
+      <c r="UT12" s="8"/>
+      <c r="UU12" s="8"/>
+      <c r="UV12" s="8"/>
+      <c r="UW12" s="8"/>
+      <c r="UX12" s="8"/>
+      <c r="UY12" s="8"/>
+      <c r="UZ12" s="8"/>
+      <c r="VA12" s="8"/>
+      <c r="VB12" s="8"/>
+      <c r="VC12" s="8"/>
+      <c r="VD12" s="8"/>
+      <c r="VE12" s="8"/>
+      <c r="VF12" s="8"/>
+      <c r="VG12" s="8"/>
+      <c r="VH12" s="8"/>
+      <c r="VI12" s="8"/>
+      <c r="VJ12" s="8"/>
+      <c r="VK12" s="8"/>
+      <c r="VL12" s="8"/>
+      <c r="VM12" s="8"/>
+      <c r="VN12" s="8"/>
+      <c r="VO12" s="8"/>
+      <c r="VP12" s="8"/>
+      <c r="VQ12" s="8"/>
+      <c r="VR12" s="8"/>
+      <c r="VS12" s="8"/>
+      <c r="VT12" s="8"/>
+      <c r="VU12" s="8"/>
+      <c r="VV12" s="8"/>
+      <c r="VW12" s="8"/>
+      <c r="VX12" s="8"/>
+      <c r="VY12" s="8"/>
+      <c r="VZ12" s="8"/>
+      <c r="WA12" s="8"/>
+      <c r="WB12" s="8"/>
+      <c r="WC12" s="8"/>
+      <c r="WD12" s="8"/>
+      <c r="WE12" s="8"/>
+      <c r="WF12" s="8"/>
+      <c r="WG12" s="8"/>
+      <c r="WH12" s="8"/>
+      <c r="WI12" s="8"/>
+      <c r="WJ12" s="8"/>
+      <c r="WK12" s="8"/>
+      <c r="WL12" s="8"/>
+      <c r="WM12" s="8"/>
+      <c r="WN12" s="8"/>
+      <c r="WO12" s="8"/>
+      <c r="WP12" s="8"/>
+      <c r="WQ12" s="8"/>
+      <c r="WR12" s="8"/>
+      <c r="WS12" s="8"/>
+      <c r="WT12" s="8"/>
+      <c r="WU12" s="8"/>
+      <c r="WV12" s="8"/>
+      <c r="WW12" s="8"/>
+      <c r="WX12" s="8"/>
+      <c r="WY12" s="8"/>
+      <c r="WZ12" s="8"/>
+      <c r="XA12" s="8"/>
+      <c r="XB12" s="8"/>
+      <c r="XC12" s="8"/>
+      <c r="XD12" s="8"/>
+      <c r="XE12" s="8"/>
+      <c r="XF12" s="8"/>
+      <c r="XG12" s="8"/>
+      <c r="XH12" s="8"/>
+      <c r="XI12" s="8"/>
+      <c r="XJ12" s="8"/>
+      <c r="XK12" s="8"/>
+      <c r="XL12" s="8"/>
+      <c r="XM12" s="8"/>
+      <c r="XN12" s="8"/>
+      <c r="XO12" s="8"/>
+      <c r="XP12" s="8"/>
+      <c r="XQ12" s="8"/>
+      <c r="XR12" s="8"/>
+      <c r="XS12" s="8"/>
+      <c r="XT12" s="8"/>
+      <c r="XU12" s="8"/>
+      <c r="XV12" s="8"/>
+      <c r="XW12" s="8"/>
+      <c r="XX12" s="8"/>
+      <c r="XY12" s="8"/>
+      <c r="XZ12" s="8"/>
+      <c r="YA12" s="8"/>
+      <c r="YB12" s="8"/>
+      <c r="YC12" s="8"/>
+      <c r="YD12" s="8"/>
+      <c r="YE12" s="8"/>
+      <c r="YF12" s="8"/>
+      <c r="YG12" s="8"/>
+      <c r="YH12" s="8"/>
+      <c r="YI12" s="8"/>
+      <c r="YJ12" s="8"/>
+      <c r="YK12" s="8"/>
+      <c r="YL12" s="8"/>
+      <c r="YM12" s="8"/>
+      <c r="YN12" s="8"/>
+      <c r="YO12" s="8"/>
+      <c r="YP12" s="8"/>
+      <c r="YQ12" s="8"/>
+      <c r="YR12" s="8"/>
+      <c r="YS12" s="8"/>
+      <c r="YT12" s="8"/>
+      <c r="YU12" s="8"/>
+      <c r="YV12" s="8"/>
+      <c r="YW12" s="8"/>
+      <c r="YX12" s="8"/>
+      <c r="YY12" s="8"/>
+      <c r="YZ12" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -2221,5 +2174,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>